--- a/biology/Biochimie/Chavibétol/Chavibétol.xlsx
+++ b/biology/Biochimie/Chavibétol/Chavibétol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chavib%C3%A9tol</t>
+          <t>Chavibétol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chavibétol, allylgaïacol, bételphénol ou encore m-eugénol est un composé organique aromatique de la famille des phénylpropènes, une sous-classe des phénylpropanoïdes. C'est un isomère de position de l'eugénol, les groupes méthoxy et phénol étant inversés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chavib%C3%A9tol</t>
+          <t>Chavibétol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chavibétol est un liquide huileux fortement réfringent à l'arôme fumé. En solution alcoolique, en présence de chlorure de fer(III) , il se colore d'un bleu-violet intense[3].
-Chauffé en présence de base, comme la potasse, il se change en isoeugénol[2] qui peut ensuite être oxydé par le permanganate de potassium en vanilline.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chavibétol est un liquide huileux fortement réfringent à l'arôme fumé. En solution alcoolique, en présence de chlorure de fer(III) , il se colore d'un bleu-violet intense.
+Chauffé en présence de base, comme la potasse, il se change en isoeugénol qui peut ensuite être oxydé par le permanganate de potassium en vanilline.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chavib%C3%A9tol</t>
+          <t>Chavibétol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Occurrence naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve notamment dans l'huile essentielle des feuilles de bétel (Piper betle)[4]. On l'extrait de la même façon que l'eugénol dans l'huile essentielle de clou de girofle; on commence par agiter l'huile de bétel avec de la soude, puis on acidifie avec de l'acide sulfurique et ensuite on distille sous vide le chavibétol[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve notamment dans l'huile essentielle des feuilles de bétel (Piper betle). On l'extrait de la même façon que l'eugénol dans l'huile essentielle de clou de girofle; on commence par agiter l'huile de bétel avec de la soude, puis on acidifie avec de l'acide sulfurique et ensuite on distille sous vide le chavibétol.
 </t>
         </is>
       </c>
